--- a/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
+++ b/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-Clients\EP\20-Repository\ep-graph-poc\02-Dataset2_MEP\04-SHACL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284F34AE-CA35-4FD1-84A7-787FBE16790E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66E8685-EB26-45BC-8FDD-20C33869435B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26940" windowHeight="13395" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26940" windowHeight="13395" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +523,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -589,10 +595,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -978,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +1168,7 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1252,7 +1258,7 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1327,9 +1333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN39"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1774,7 +1780,7 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="22" t="s">
         <v>93</v>
       </c>
       <c r="L20" t="s">
@@ -2095,7 +2101,7 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="22" t="s">
         <v>61</v>
       </c>
       <c r="L39" t="s">

--- a/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
+++ b/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-Clients\EP\20-Repository\ep-graph-poc\02-Dataset2_MEP\04-SHACL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66E8685-EB26-45BC-8FDD-20C33869435B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A841C589-EEAF-44CA-8B99-9373FE72238E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26940" windowHeight="13395" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26940" windowHeight="13665" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" r:id="rId1"/>
@@ -286,12 +286,6 @@
     <t>org:hasMembership</t>
   </si>
   <si>
-    <t>"^http://data.europarl.europa.eu/MEP_[0-9]{4-6}/membership$"</t>
-  </si>
-  <si>
-    <t>"^http://data.europarl.europa.eu/MEP_[0-9]{4-6}$"</t>
-  </si>
-  <si>
     <t>L'ensemble des objets contrôlés par cette Shape, exprimé comme une requête SPARQL</t>
   </si>
   <si>
@@ -410,9 +404,6 @@
     <t>epsh:MembershipAssistant</t>
   </si>
   <si>
-    <t>"^http://data.europarl.europa.eu/Assistant_[0-9]{4-6}/membership$"</t>
-  </si>
-  <si>
     <t>Contraintes sur les MembershipAssistant</t>
   </si>
   <si>
@@ -427,6 +418,15 @@
   </si>
   <si>
     <t>Assistant membership to an MEP</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership$"</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?$"</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership$"</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView windowProtection="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>5</v>
@@ -1152,7 +1152,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
@@ -1163,16 +1163,16 @@
     </row>
     <row r="10" spans="1:11 1025:1025" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1182,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>48</v>
@@ -1193,16 +1193,16 @@
     </row>
     <row r="11" spans="1:11 1025:1025" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1212,7 +1212,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>48</v>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="12" spans="1:11 1025:1025" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>48</v>
@@ -1253,16 +1253,16 @@
     </row>
     <row r="13" spans="1:11 1025:1025" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -1272,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>48</v>
@@ -1333,9 +1333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN39"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1460,7 +1460,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>28</v>
@@ -1490,7 +1490,7 @@
         <v>47</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AMM7"/>
       <c r="AMN7"/>
@@ -1524,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>40</v>
@@ -1554,7 +1554,7 @@
         <v>46</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:20 1027:1028" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1598,7 +1598,7 @@
         <v>epsh:P11</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
@@ -1748,18 +1748,18 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T19" s="20"/>
     </row>
@@ -1769,30 +1769,30 @@
         <v>epsh:P20</v>
       </c>
       <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>93</v>
       </c>
       <c r="L20" t="s">
         <v>18</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T23" s="20"/>
     </row>
@@ -1802,10 +1802,10 @@
         <v>epsh:P24</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -1826,10 +1826,10 @@
         <v>epsh:P25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>45</v>
       </c>
       <c r="M25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -1850,10 +1850,10 @@
         <v>epsh:P26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>45</v>
       </c>
       <c r="M26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -1874,10 +1874,10 @@
         <v>epsh:P27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>45</v>
       </c>
       <c r="M27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -1901,7 +1901,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -1913,7 +1913,7 @@
         <v>45</v>
       </c>
       <c r="M28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -1922,10 +1922,10 @@
         <v>epsh:P29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>45</v>
       </c>
       <c r="M29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -1946,10 +1946,10 @@
         <v>epsh:P30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G30" s="1">
         <v>24</v>
@@ -1961,18 +1961,18 @@
         <v>45</v>
       </c>
       <c r="M30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S30" t="s">
         <v>48</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T32" s="20"/>
     </row>
@@ -1985,7 +1985,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>45</v>
       </c>
       <c r="M33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -2006,10 +2006,10 @@
         <v>epsh:P34</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -2021,7 +2021,7 @@
         <v>45</v>
       </c>
       <c r="M34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -2030,10 +2030,10 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2045,10 +2045,10 @@
         <v>45</v>
       </c>
       <c r="M35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -2060,7 +2060,7 @@
         <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -2069,18 +2069,18 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L36" t="s">
         <v>18</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="T38" s="20"/>
     </row>
@@ -2090,10 +2090,10 @@
         <v>epsh:P39</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>

--- a/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
+++ b/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-Clients\EP\20-Repository\ep-graph-poc\02-Dataset2_MEP\04-SHACL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A841C589-EEAF-44CA-8B99-9373FE72238E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C81DB-0DEB-4F80-AA43-EA2132FE46D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26940" windowHeight="13665" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="127">
   <si>
     <t>URI du Graphe</t>
   </si>
@@ -374,9 +374,6 @@
     <t>sh:node</t>
   </si>
   <si>
-    <t>("hu" "et" "fi" "cs" "lk" "lt" "lv" "mt" "en" "da" "nl" "sv" "hr" "sl" "pl" "de" "ro" "it" "pt" "es" "fr" "ga" "el" "bg")</t>
-  </si>
-  <si>
     <t>Contraintes sur les Assistants</t>
   </si>
   <si>
@@ -420,13 +417,19 @@
     <t>Assistant membership to an MEP</t>
   </si>
   <si>
-    <t>"^http://data.europarl.europa.eu/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership$"</t>
-  </si>
-  <si>
     <t>"^http://data.europarl.europa.eu/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?$"</t>
   </si>
   <si>
     <t>"^http://data.europarl.europa.eu/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership$"</t>
+  </si>
+  <si>
+    <t>Note : a single assistant can be the assistant of multiple MEP</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/MEP_.*$"</t>
+  </si>
+  <si>
+    <t>("hu" "et" "fi" "cs" "sk" "lt" "lv" "mt" "en" "da" "nl" "sv" "hr" "sl" "pl" "de" "ro" "it" "pt" "es" "fr" "ga" "el" "bg")</t>
   </si>
 </sst>
 </file>
@@ -984,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView windowProtection="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
@@ -1182,7 +1185,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>48</v>
@@ -1223,16 +1226,16 @@
     </row>
     <row r="12" spans="1:11 1025:1025" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -1242,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>48</v>
@@ -1253,16 +1256,16 @@
     </row>
     <row r="13" spans="1:11 1025:1025" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -1272,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>48</v>
@@ -1333,9 +1336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN39"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1598,7 +1601,7 @@
         <v>epsh:P11</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
@@ -1754,7 +1757,7 @@
         <v>18</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1967,12 +1970,12 @@
         <v>48</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T32" s="20"/>
     </row>
@@ -1985,7 +1988,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -2006,10 +2009,10 @@
         <v>epsh:P34</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -2030,10 +2033,10 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2048,10 +2051,10 @@
         <v>104</v>
       </c>
       <c r="Q35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="3"/>
         <v>epsh:P36</v>
@@ -2060,27 +2063,27 @@
         <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
       <c r="J36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L36" t="s">
         <v>18</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T38" s="20"/>
     </row>
@@ -2093,7 +2096,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>

--- a/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
+++ b/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-Clients\EP\20-Repository\ep-graph-poc\02-Dataset2_MEP\04-SHACL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C81DB-0DEB-4F80-AA43-EA2132FE46D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8194356C-D89C-4DAE-A83F-7080D0186439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26940" windowHeight="13665" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14220" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
   <si>
     <t>URI du Graphe</t>
   </si>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>xsd:integer</t>
-  </si>
-  <si>
-    <t>rdf:plainLiteral</t>
   </si>
   <si>
     <t>sh:languageIn</t>
@@ -1155,7 +1152,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
@@ -1185,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>48</v>
@@ -1226,16 +1223,16 @@
     </row>
     <row r="12" spans="1:11 1025:1025" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -1245,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>48</v>
@@ -1256,16 +1253,16 @@
     </row>
     <row r="13" spans="1:11 1025:1025" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -1275,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>48</v>
@@ -1336,9 +1333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN39"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1493,7 +1490,7 @@
         <v>47</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AMM7"/>
       <c r="AMN7"/>
@@ -1527,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>40</v>
@@ -1557,7 +1554,7 @@
         <v>46</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:20 1027:1028" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,6 +1590,9 @@
       <c r="L10" t="s">
         <v>45</v>
       </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:20 1027:1028" x14ac:dyDescent="0.2">
@@ -1601,7 +1601,7 @@
         <v>epsh:P11</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
@@ -1614,6 +1614,9 @@
       </c>
       <c r="L11" t="s">
         <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:20 1027:1028" x14ac:dyDescent="0.2">
@@ -1660,6 +1663,9 @@
       <c r="L13" t="s">
         <v>45</v>
       </c>
+      <c r="M13" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:20 1027:1028" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
@@ -1757,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1916,7 +1922,7 @@
         <v>45</v>
       </c>
       <c r="M28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -1940,7 +1946,7 @@
         <v>45</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -1964,18 +1970,18 @@
         <v>45</v>
       </c>
       <c r="M30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S30" t="s">
         <v>48</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T32" s="20"/>
     </row>
@@ -1988,7 +1994,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -2000,7 +2006,7 @@
         <v>45</v>
       </c>
       <c r="M33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -2009,10 +2015,10 @@
         <v>epsh:P34</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -2024,7 +2030,7 @@
         <v>45</v>
       </c>
       <c r="M34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -2033,10 +2039,10 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2048,10 +2054,10 @@
         <v>45</v>
       </c>
       <c r="M35" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
@@ -2063,27 +2069,27 @@
         <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L36" t="s">
         <v>18</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T38" s="20"/>
     </row>
@@ -2096,7 +2102,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>

--- a/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
+++ b/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">eponto</t>
   </si>
   <si>
-    <t xml:space="preserve">http://data.europa.eu/ontology/ep#</t>
+    <t xml:space="preserve">http://data.europarl.europa.eu/ontology/ep#</t>
   </si>
   <si>
     <t xml:space="preserve">Cette feuille spécifie la liste de Shapes basées sur des classes</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">MEP</t>
   </si>
   <si>
-    <t xml:space="preserve">/person/{person id  } 
+    <t xml:space="preserve">/person/{person id } 
 Example
 /person/MEP_342 </t>
   </si>
@@ -133,34 +133,7 @@
     <t xml:space="preserve">sh:IRI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/person/MEP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?$"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?$"</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
@@ -184,34 +157,7 @@
 (toujours mettre /1 à la fin)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9]$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9]$"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:PoliticalGroup</t>
@@ -228,34 +174,7 @@
 /org/group/CD-497</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/org/group/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.*$"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/org/group/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:Assistant</t>
@@ -290,34 +209,7 @@
 Mettre un numéro séquentiel dans les membership</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$"</t>
   </si>
   <si>
     <t xml:space="preserve">Cette feuille spécifie les contraintes sur les propriétés attachées à chaque Shape de la première feuille</t>
@@ -455,34 +347,7 @@
     <t xml:space="preserve">eponto:Civility</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/civility/.*$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/civility/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">skos:notation</t>
@@ -491,100 +356,19 @@
     <t xml:space="preserve">eponto:Gender</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/gender/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.*$"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/gender/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">eponto:Status</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/conceptStatus/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.*$"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/conceptStatus/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">eponto:hasBirthCountry</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/country/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.*$"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/country/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">org:hasMembership</t>
@@ -657,7 +441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -708,11 +492,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -813,7 +592,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -830,10 +609,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -878,35 +653,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -990,11 +761,11 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -1003,8 +774,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="45.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="84.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.57"/>
   </cols>
@@ -1024,11 +795,11 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -1037,11 +808,11 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -1050,93 +821,93 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="8" s="10" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="8" s="9" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1182,7 +953,7 @@
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1195,7 +966,7 @@
       <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="15" t="s">
         <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1227,7 +998,7 @@
       <c r="H12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="15" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1253,7 +1024,7 @@
       <c r="F13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -1279,20 +1050,20 @@
       <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="15" t="s">
         <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1303,8 +1074,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,10 +1104,9 @@
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes"/>
     <hyperlink ref="E9" r:id="rId2" display="rdfs:label@fr"/>
     <hyperlink ref="G9" r:id="rId3" display="rdfs:comment@fr"/>
-    <hyperlink ref="I10" r:id="rId4" display="http://data.europarl.europa.eu/person/MEP"/>
-    <hyperlink ref="I11" r:id="rId5" display="http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9]$"/>
-    <hyperlink ref="I12" r:id="rId6" display="http://data.europarl.europa.eu/org/group/"/>
-    <hyperlink ref="I14" r:id="rId7" display="http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$"/>
+    <hyperlink ref="I11" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9]$&quot;"/>
+    <hyperlink ref="I12" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
+    <hyperlink ref="I14" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1355,27 +1125,27 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="34.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="28.14"/>
@@ -1397,7 +1167,7 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="1"/>
@@ -1409,7 +1179,7 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="1"/>
@@ -1421,167 +1191,167 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" s="12" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" s="11" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+    <row r="10" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="21"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="str">
@@ -1659,7 +1429,7 @@
       <c r="L13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="R13" s="15" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1707,7 +1477,7 @@
       <c r="L15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="0" t="s">
+      <c r="R15" s="15" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1731,7 +1501,7 @@
       <c r="L16" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="R16" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1755,7 +1525,7 @@
       <c r="L17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="R17" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1782,13 +1552,13 @@
       <c r="L18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="22"/>
-    </row>
-    <row r="20" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
+      <c r="R18" s="15"/>
+    </row>
+    <row r="20" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="T20" s="21"/>
+      <c r="T20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="str">
@@ -1807,13 +1577,13 @@
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="21" t="s">
         <v>44</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="0" t="s">
+      <c r="R21" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1841,11 +1611,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+    <row r="24" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="T24" s="21"/>
+      <c r="T24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="str">
@@ -2021,11 +1791,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+    <row r="33" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="T33" s="21"/>
+      <c r="T33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
@@ -2125,13 +1895,13 @@
       <c r="L37" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R37" s="22"/>
-    </row>
-    <row r="39" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
+      <c r="R37" s="15"/>
+    </row>
+    <row r="39" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="T39" s="21"/>
+      <c r="T39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="str">
@@ -2150,13 +1920,13 @@
       <c r="H40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="21" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R40" s="0" t="s">
+      <c r="R40" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2188,12 +1958,12 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes"/>
     <hyperlink ref="E9" r:id="rId2" display="sh:name@fr"/>
-    <hyperlink ref="R13" r:id="rId3" display="http://data.europarl.europa.eu/authority/civility/.*$"/>
-    <hyperlink ref="R15" r:id="rId4" display="http://data.europarl.europa.eu/authority/gender/"/>
-    <hyperlink ref="R16" r:id="rId5" display="http://data.europarl.europa.eu/authority/conceptStatus/"/>
-    <hyperlink ref="R17" r:id="rId6" display="http://data.europarl.europa.eu/authority/country/"/>
-    <hyperlink ref="R21" r:id="rId7" display="http://data.europarl.europa.eu/org/group/"/>
-    <hyperlink ref="R40" r:id="rId8" display="http://data.europarl.europa.eu/person/MEP"/>
+    <hyperlink ref="R13" r:id="rId3" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
+    <hyperlink ref="R15" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
+    <hyperlink ref="R16" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>
+    <hyperlink ref="R17" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/authority/country/.*$&quot;"/>
+    <hyperlink ref="R21" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
+    <hyperlink ref="R40" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
+++ b/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
@@ -157,7 +157,34 @@
 (toujours mettre /1 à la fin)</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9]$"</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9][0-9]?[0-9]?[0-9]?[0-9]?$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">epsh:PoliticalGroup</t>
@@ -761,11 +788,11 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -943,7 +970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>39</v>
       </c>
@@ -966,7 +993,7 @@
       <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="0" t="s">
         <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1104,7 +1131,7 @@
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes"/>
     <hyperlink ref="E9" r:id="rId2" display="rdfs:label@fr"/>
     <hyperlink ref="G9" r:id="rId3" display="rdfs:comment@fr"/>
-    <hyperlink ref="I11" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9]$&quot;"/>
+    <hyperlink ref="I11" r:id="rId4" display="http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9][0-9]?[0-9]?[0-9]?[0-9]?$"/>
     <hyperlink ref="I12" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
     <hyperlink ref="I14" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$&quot;"/>
   </hyperlinks>
@@ -1131,7 +1158,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>

--- a/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
+++ b/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
@@ -21,12 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="133">
-  <si>
-    <t xml:space="preserve">URI du Graphe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://data.europarl.europa.eu/shapes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="155">
+  <si>
+    <t xml:space="preserve">Shapes URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://data.europarl.europa.eu/shapes/meps</t>
   </si>
   <si>
     <t xml:space="preserve">@prefix</t>
@@ -50,49 +50,64 @@
     <t xml:space="preserve">http://data.europarl.europa.eu/ontology/ep#</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette feuille spécifie la liste de Shapes basées sur des classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’URI de la Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le type de la Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’ensemble des objets contrôlés par cette Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'ensemble des objets contrôlés par cette Shape, exprimé comme une requête SPARQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un libellé pour la Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’ordre dans lequel la Shape sera affichée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La description textuelle de la Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le type de nœuds qui doivent répondre à cette Shape (toujours sh:IRI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'expression régulière des URIs ciblées par cette Shapes</t>
+    <t xml:space="preserve">rdf:type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owl:Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdfs:label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet specifies the NodeShape with their targets, that is the sets of entities being validated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeShape URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of Shape (always NodeShape)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set of entities validated by this Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label for the Shape (French)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label for the Shape (English)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order in which Shape shall be printed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textual description of the Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type that the nodes controlled by this Shape must have (always sh:IRI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular expression that the nodes controlled by this Shape must follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the shape operates in closed world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties to ignore when testing for closed world constraint (a list, always containing rdf:type)</t>
   </si>
   <si>
     <t xml:space="preserve">URI</t>
   </si>
   <si>
-    <t xml:space="preserve">rdf:type</t>
-  </si>
-  <si>
     <t xml:space="preserve">sh:targetClass</t>
   </si>
   <si>
-    <t xml:space="preserve">sh:target</t>
-  </si>
-  <si>
     <t xml:space="preserve">rdfs:label@fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdfs:label@en</t>
   </si>
   <si>
     <t xml:space="preserve">sh:order^^xsd:integer</t>
@@ -146,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">eponto:MembershipMEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relation MEP / groupe politique</t>
   </si>
   <si>
     <t xml:space="preserve">MEP political party membership</t>
@@ -166,6 +184,9 @@
     <t xml:space="preserve">eponto:PoliticalGroup</t>
   </si>
   <si>
+    <t xml:space="preserve">Groupe politique</t>
+  </si>
+  <si>
     <t xml:space="preserve">Political Group</t>
   </si>
   <si>
@@ -198,6 +219,9 @@
   </si>
   <si>
     <t xml:space="preserve">eponto:MembershipAssistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relation Assistant / MEP</t>
   </si>
   <si>
     <t xml:space="preserve">Assistant membership to an MEP</t>
@@ -212,67 +236,67 @@
     <t xml:space="preserve">"^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$"</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette feuille spécifie les contraintes sur les propriétés attachées à chaque Shape de la première feuille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URI de la contrainte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le prédicat ou path sur lequel la contrainte s’applique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Shape à laquelle la contrainte est attachée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le niveau de sévérité de la contrainte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le nom de la contrainte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La description textuelle de la contrainte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cardinalité minimum que le prédicat ou le path doit avoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cardinalité maximum que le prédicat ou le path doit avoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classe attendue comme valeur de la propriété, quand il n’y en a qu’une</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape attendue comme valeur de la propriété</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classes attendues comme valeur de la propriété, quand il y en a plusieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le type de nœud que les valeurs devraient avoir (sh:IRI or sh:Literal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour les valeurs litérales, le type de données attendu pour les valeurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le type d'objet pour lequel les qualifiedMin ou MaxCount doivent être vérifié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le nombre de fois minimum que le type indiqué dans sh:qualifiedValueShape doit être trouvé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le nombre de fois maximum que le type indiqué dans sh:qualifiedValueShape doit être trouvé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La liste des valeurs possibles pour la propriété, quand la liste de valeurs possible est petite et connue à l’avance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La forme des URIs attendues comme valeur de la propriété, par exemple quand on s’attend à une URI GEONAMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre à true dans le cas des skos:prefLabel pour indiquer qu'il ne faut qu'une seule valeur maximum par langue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La liste de code de langues autorisés pour cette valeur</t>
+    <t xml:space="preserve">This sheet specifies constraints that are attached to the NodeShapes specified in the first sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraint IRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicate or path on which the constraint applies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeShape to which the constraint is applied (a reference to a NodeShape IRI from the first sheet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display order of the property / constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of predicate/path within the context of that NodeShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of the predicate/path within the context of that NodeShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum cardinality that the predicate/path must have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum cardinality that the predicate/path must have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected class that the values of the predicate/path must have, if only one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected shape that the values of the predicate/path must follow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected classes that the values of the predicate/path must have, if there are multiple. Expressed as a Turtle list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of nodes that the values must have (sh:IRI or sh:Literal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For literal values, the expected datatype of the values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The shape that must be verified by the qualifiedMin or qualifiedMax count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of time that the shape indicated by sh:qualifiedValueShape must be found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of times that the shape indicated by sh:qualifiedValueShape must be found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected possible values for the predicate/path, when the list is small and known in advance. Expressed as a Turtle list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General URI or string pattern expected for the values of the predicate/path, expressed as a regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set to true for skos:prefLabel to indicate there should be only one value per langage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of langage codes expected for this predicate/path. Expressed as a turtle list</t>
   </si>
   <si>
     <t xml:space="preserve">sh:path</t>
@@ -281,10 +305,7 @@
     <t xml:space="preserve">^sh:property(separator=",")</t>
   </si>
   <si>
-    <t xml:space="preserve">sh:severity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:name@fr</t>
+    <t xml:space="preserve">sh:name@en</t>
   </si>
   <si>
     <t xml:space="preserve">sh:description</t>
@@ -332,7 +353,7 @@
     <t xml:space="preserve">foaf:firstName</t>
   </si>
   <si>
-    <t xml:space="preserve">sh:Violation</t>
+    <t xml:space="preserve">first name</t>
   </si>
   <si>
     <t xml:space="preserve">sh:Literal</t>
@@ -344,88 +365,133 @@
     <t xml:space="preserve">foaf:familyName</t>
   </si>
   <si>
+    <t xml:space="preserve">family name</t>
+  </si>
+  <si>
     <t xml:space="preserve">eponto:Civility</t>
   </si>
   <si>
+    <t xml:space="preserve">civility</t>
+  </si>
+  <si>
     <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/civility/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">skos:notation</t>
   </si>
   <si>
+    <t xml:space="preserve">notation</t>
+  </si>
+  <si>
     <t xml:space="preserve">eponto:Gender</t>
   </si>
   <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
     <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/gender/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">eponto:Status</t>
   </si>
   <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
     <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/conceptStatus/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">eponto:hasBirthCountry</t>
   </si>
   <si>
+    <t xml:space="preserve">birth country</t>
+  </si>
+  <si>
     <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/country/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">org:hasMembership</t>
   </si>
   <si>
+    <t xml:space="preserve">membership</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contraintes sur les MembershipMEP</t>
   </si>
   <si>
     <t xml:space="preserve">org:organization</t>
   </si>
   <si>
+    <t xml:space="preserve">political party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
     <t xml:space="preserve">(org:Membership eponto:MembershipMEP)</t>
   </si>
   <si>
     <t xml:space="preserve">Contraintes sur les PoliticalGroup</t>
   </si>
   <si>
+    <t xml:space="preserve">default label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skos:prefLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preferred label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdf:langString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("hu" "et" "fi" "cs" "sk" "lt" "lv" "mt" "en" "da" "nl" "sv" "hr" "sl" "pl" "de" "ro" "it" "pt" "es" "fr" "ga" "el" "bg")</t>
+  </si>
+  <si>
     <t xml:space="preserve">eponto:activatedDate</t>
   </si>
   <si>
+    <t xml:space="preserve">activated date</t>
+  </si>
+  <si>
     <t xml:space="preserve">xsd:date</t>
   </si>
   <si>
     <t xml:space="preserve">eponto:startDate</t>
   </si>
   <si>
+    <t xml:space="preserve">start date</t>
+  </si>
+  <si>
     <t xml:space="preserve">eponto:endDate</t>
   </si>
   <si>
+    <t xml:space="preserve">end date</t>
+  </si>
+  <si>
     <t xml:space="preserve">eponto:orderNumber</t>
   </si>
   <si>
+    <t xml:space="preserve">order number</t>
+  </si>
+  <si>
     <t xml:space="preserve">xsd:integer</t>
   </si>
   <si>
-    <t xml:space="preserve">rdfs:label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skos:prefLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdf:langString</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("hu" "et" "fi" "cs" "sk" "lt" "lv" "mt" "en" "da" "nl" "sv" "hr" "sl" "pl" "de" "ro" "it" "pt" "es" "fr" "ga" "el" "bg")</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contraintes sur les Assistants</t>
   </si>
   <si>
     <t xml:space="preserve">eponto:assistantType</t>
   </si>
   <si>
+    <t xml:space="preserve">type of assistant</t>
+  </si>
+  <si>
     <t xml:space="preserve">("Local" "Accredited")</t>
   </si>
   <si>
-    <t xml:space="preserve">Note : a single assistant can be the assistant of multiple MEP</t>
+    <t xml:space="preserve">Note : a single assistant can be the assistant of multiple MEP</t>
   </si>
   <si>
     <t xml:space="preserve">Contraintes sur les MembershipAssistant</t>
@@ -649,12 +715,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -759,28 +825,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="84.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -798,7 +864,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,7 +877,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,289 +890,334 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4"/>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" s="9" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="8" s="9" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="G11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="H11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="I11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="J11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="K11" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="G15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="15"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes"/>
-    <hyperlink ref="E9" r:id="rId2" display="rdfs:label@fr"/>
-    <hyperlink ref="G9" r:id="rId3" display="rdfs:comment@fr"/>
-    <hyperlink ref="I11" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9][0-9]?[0-9]?[0-9]?[0-9]?$&quot;"/>
-    <hyperlink ref="I12" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
-    <hyperlink ref="I14" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$&quot;"/>
+    <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/meps"/>
+    <hyperlink ref="D11" r:id="rId2" display="rdfs:label@fr"/>
+    <hyperlink ref="E11" r:id="rId3" display="rdfs:label@en"/>
+    <hyperlink ref="G11" r:id="rId4" display="rdfs:comment@fr"/>
+    <hyperlink ref="I13" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9][0-9]?[0-9]?[0-9]?[0-9]?$&quot;"/>
+    <hyperlink ref="I14" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
+    <hyperlink ref="I16" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1125,18 +1236,19 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="V8" activeCellId="0" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.4"/>
@@ -1151,7 +1263,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="28.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1170,6 +1282,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,6 +1295,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="2"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,18 +1308,20 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1218,138 +1334,142 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E7" s="1"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" s="11" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T10" s="20"/>
     </row>
@@ -1359,17 +1479,16 @@
         <v>epsh:P11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f aca="false">CONCATENATE("Contraintes de ", B11, " sur un ", C11)</f>
-        <v>Contraintes de foaf:firstName sur un epsh:MEP</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>1</v>
@@ -1378,23 +1497,29 @@
         <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A12))</f>
         <v>epsh:P12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1</v>
@@ -1403,10 +1528,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,10 +1540,16 @@
         <v>epsh:P13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0</v>
@@ -1427,22 +1558,28 @@
         <v>1</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A14))</f>
         <v>epsh:P14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
@@ -1451,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,10 +1600,16 @@
         <v>epsh:P15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1</v>
@@ -1475,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,10 +1630,16 @@
         <v>epsh:P16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>1</v>
@@ -1499,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>109</v>
+        <v>40</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,10 +1660,16 @@
         <v>epsh:P17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
@@ -1523,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>111</v>
+        <v>40</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,10 +1690,16 @@
         <v>epsh:P18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>1</v>
@@ -1547,16 +1708,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="R18" s="14"/>
     </row>
     <row r="20" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="T20" s="20"/>
     </row>
@@ -1566,10 +1727,16 @@
         <v>epsh:P21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
@@ -1578,13 +1745,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,10 +1760,16 @@
         <v>epsh:P22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>2</v>
@@ -1605,28 +1778,34 @@
         <v>2</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A25))</f>
         <v>epsh:P25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1</v>
@@ -1635,46 +1814,64 @@
         <v>1</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A26))</f>
         <v>epsh:P26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A27))</f>
         <v>epsh:P27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>1</v>
@@ -1683,22 +1880,28 @@
         <v>1</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A28))</f>
         <v>epsh:P28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>1</v>
@@ -1707,22 +1910,28 @@
         <v>1</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A29))</f>
         <v>epsh:P29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1</v>
@@ -1731,22 +1940,28 @@
         <v>1</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A30))</f>
         <v>epsh:P30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>1</v>
@@ -1755,58 +1970,64 @@
         <v>1</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A31))</f>
         <v>epsh:P31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="S31" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A34))</f>
         <v>epsh:P34</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>106</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>1</v>
@@ -1815,22 +2036,28 @@
         <v>1</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A35))</f>
         <v>epsh:P35</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>1</v>
@@ -1839,22 +2066,28 @@
         <v>1</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A36))</f>
         <v>epsh:P36</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>150</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>1</v>
@@ -1863,13 +2096,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,28 +2111,34 @@
         <v>epsh:P37</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R37" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="R37" s="14"/>
     </row>
     <row r="39" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="T39" s="20"/>
     </row>
@@ -1909,10 +2148,16 @@
         <v>epsh:P40</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1</v>
@@ -1921,13 +2166,13 @@
         <v>1</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R40" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="R40" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,10 +2181,16 @@
         <v>epsh:P41</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>2</v>
@@ -1948,16 +2199,16 @@
         <v>2</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes"/>
-    <hyperlink ref="E9" r:id="rId2" display="sh:name@fr"/>
+    <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/meps"/>
+    <hyperlink ref="E9" r:id="rId2" display="sh:name@en"/>
     <hyperlink ref="R13" r:id="rId3" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
     <hyperlink ref="R15" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
     <hyperlink ref="R16" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>

--- a/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
+++ b/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
   <si>
     <t xml:space="preserve">Shapes URI</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">sh:order^^xsd:integer</t>
   </si>
   <si>
-    <t xml:space="preserve">rdfs:comment@fr</t>
+    <t xml:space="preserve">rdfs:comment@en</t>
   </si>
   <si>
     <t xml:space="preserve">sh:nodeKind</t>
@@ -140,9 +140,8 @@
     <t xml:space="preserve">MEP</t>
   </si>
   <si>
-    <t xml:space="preserve">/person/{person id } 
-Example
-/person/MEP_342 </t>
+    <t xml:space="preserve">A Member of European Parliament. Example URI "
+/person/MEP_342"</t>
   </si>
   <si>
     <t xml:space="preserve">sh:IRI</t>
@@ -169,10 +168,7 @@
     <t xml:space="preserve">MEP political party membership</t>
   </si>
   <si>
-    <t xml:space="preserve">person/{id  }/membership/{serial}
-Example
-person/MEP_342/membership/1
-(toujours mettre /1 à la fin)</t>
+    <t xml:space="preserve">A relation between MEP and the political group (s)he belongs to at a given point in time. Example URI "person/MEP_342/membership/1"</t>
   </si>
   <si>
     <t xml:space="preserve">"^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9][0-9]?[0-9]?[0-9]?[0-9]?$"</t>
@@ -190,9 +186,7 @@
     <t xml:space="preserve">Political Group</t>
   </si>
   <si>
-    <t xml:space="preserve">org/{org-type}/{natural identifier} 
-Example : 
-/org/group/CD-497</t>
+    <t xml:space="preserve">A Political Group. Example URI "/org/group/CD-497"</t>
   </si>
   <si>
     <t xml:space="preserve">"^http://data.europarl.europa.eu/org/group/.*$"</t>
@@ -207,9 +201,7 @@
     <t xml:space="preserve">Assistant</t>
   </si>
   <si>
-    <t xml:space="preserve">/person/{person id  } 
-Example
-/person/Assistant_45 </t>
+    <t xml:space="preserve">An assistant to an MEP. Example URI "/person/Assistant_45"</t>
   </si>
   <si>
     <t xml:space="preserve">"^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?$"</t>
@@ -227,10 +219,7 @@
     <t xml:space="preserve">Assistant membership to an MEP</t>
   </si>
   <si>
-    <t xml:space="preserve">person/{id  }/membership/{serial}
-Example
-person/MEP_342/membership/1
-Mettre un numéro séquentiel dans les membership</t>
+    <t xml:space="preserve">A relation between an Assistant and its MEP. An assistant may assist more than 1 MEP. Example URI "person/Assistant_45/membership/1"</t>
   </si>
   <si>
     <t xml:space="preserve">"^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$"</t>
@@ -425,6 +414,9 @@
     <t xml:space="preserve">political party</t>
   </si>
   <si>
+    <t xml:space="preserve">Theoretically points to Shape PoliticalGroup, but this constraint is removed when validating files, because MEP and Political Groups are in different source files</t>
+  </si>
+  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
@@ -495,6 +487,9 @@
   </si>
   <si>
     <t xml:space="preserve">Contraintes sur les MembershipAssistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theoretically points to Shape MEP, but this constraint is removed when validating files, because Assistant and MEP are in different source files</t>
   </si>
   <si>
     <t xml:space="preserve">(org:Membership eponto:MembershipAssistant)</t>
@@ -507,7 +502,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -588,6 +583,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -658,7 +658,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -745,6 +745,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -827,11 +831,11 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -1009,7 +1013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>35</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>44</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>50</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>56</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>61</v>
       </c>
@@ -1214,7 +1218,7 @@
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/meps"/>
     <hyperlink ref="D11" r:id="rId2" display="rdfs:label@fr"/>
     <hyperlink ref="E11" r:id="rId3" display="rdfs:label@en"/>
-    <hyperlink ref="G11" r:id="rId4" display="rdfs:comment@fr"/>
+    <hyperlink ref="G11" r:id="rId4" display="comment@en"/>
     <hyperlink ref="I13" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9][0-9]?[0-9]?[0-9]?[0-9]?$&quot;"/>
     <hyperlink ref="I14" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
     <hyperlink ref="I16" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$&quot;"/>
@@ -1236,13 +1240,13 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="V8" activeCellId="0" sqref="V8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -1721,7 +1725,7 @@
       </c>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A21))</f>
         <v>epsh:P21</v>
@@ -1737,6 +1741,9 @@
       </c>
       <c r="E21" s="0" t="s">
         <v>129</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
@@ -1769,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>2</v>
@@ -1781,12 +1788,12 @@
         <v>40</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T24" s="20"/>
     </row>
@@ -1805,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1</v>
@@ -1826,7 +1833,7 @@
         <v>epsh:P26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>50</v>
@@ -1835,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>24</v>
@@ -1847,13 +1854,13 @@
         <v>107</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>42</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1869,7 @@
         <v>epsh:P27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>50</v>
@@ -1871,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>1</v>
@@ -1883,7 +1890,7 @@
         <v>107</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,7 +1899,7 @@
         <v>epsh:P28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>50</v>
@@ -1901,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>1</v>
@@ -1913,7 +1920,7 @@
         <v>107</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +1929,7 @@
         <v>epsh:P29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>50</v>
@@ -1931,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1</v>
@@ -1943,7 +1950,7 @@
         <v>107</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,7 +1959,7 @@
         <v>epsh:P30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -1961,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>1</v>
@@ -1973,7 +1980,7 @@
         <v>107</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,7 +2015,7 @@
     </row>
     <row r="33" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T33" s="20"/>
     </row>
@@ -2078,7 +2085,7 @@
         <v>epsh:P36</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>56</v>
@@ -2087,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>1</v>
@@ -2102,7 +2109,7 @@
         <v>108</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,7 +2130,7 @@
         <v>126</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>1</v>
@@ -2138,11 +2145,11 @@
     </row>
     <row r="39" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T39" s="20"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A40))</f>
         <v>epsh:P40</v>
@@ -2158,6 +2165,9 @@
       </c>
       <c r="E40" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1</v>
@@ -2190,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>2</v>
@@ -2202,7 +2212,7 @@
         <v>40</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
+++ b/02-Dataset2_MEP/04-SHACL/Dataset2_MEP-Shapes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
   <si>
     <t xml:space="preserve">Shapes URI</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t xml:space="preserve">@prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://data.europarl.europa.eu/</t>
   </si>
   <si>
     <t xml:space="preserve">epsh</t>
@@ -414,7 +408,7 @@
     <t xml:space="preserve">political party</t>
   </si>
   <si>
-    <t xml:space="preserve">Theoretically points to Shape PoliticalGroup, but this constraint is removed when validating files, because MEP and Political Groups are in different source files</t>
+    <t xml:space="preserve">Theoretically points to Shape PoliticalGroup, but this constraint is removed when validating converted files, because MEP and Political Groups are in different source files</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -489,7 +483,7 @@
     <t xml:space="preserve">Contraintes sur les MembershipAssistant</t>
   </si>
   <si>
-    <t xml:space="preserve">Theoretically points to Shape MEP, but this constraint is removed when validating files, because Assistant and MEP are in different source files</t>
+    <t xml:space="preserve">Theoretically points to Shape MEP, but this constraint is removed when validating converted files, because Assistant and MEP are in different source files</t>
   </si>
   <si>
     <t xml:space="preserve">(org:Membership eponto:MembershipAssistant)</t>
@@ -502,7 +496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -576,18 +570,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <strike val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -658,7 +640,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -743,12 +725,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -829,13 +807,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -886,14 +864,12 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
@@ -909,287 +885,279 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" s="9" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" s="9" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="11" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="12" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="B11" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="I12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="K13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="H14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="15"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="15"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,10 +1166,10 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,19 +1177,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/meps"/>
-    <hyperlink ref="D11" r:id="rId2" display="rdfs:label@fr"/>
-    <hyperlink ref="E11" r:id="rId3" display="rdfs:label@en"/>
-    <hyperlink ref="G11" r:id="rId4" display="comment@en"/>
-    <hyperlink ref="I13" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9][0-9]?[0-9]?[0-9]?[0-9]?$&quot;"/>
-    <hyperlink ref="I14" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
-    <hyperlink ref="I16" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$&quot;"/>
+    <hyperlink ref="D10" r:id="rId2" display="rdfs:label@fr"/>
+    <hyperlink ref="E10" r:id="rId3" display="rdfs:label@en"/>
+    <hyperlink ref="G10" r:id="rId4" display="rdfs:comment@en"/>
+    <hyperlink ref="I12" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?/membership/[0-9][0-9]?[0-9]?[0-9]?[0-9]?$&quot;"/>
+    <hyperlink ref="I13" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
+    <hyperlink ref="I15" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/person/Assistant_[0-9][0-9][0-9][0-9][0-9]?[0-9]?/membership/[0-9]$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1238,15 +1203,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -1300,213 +1265,230 @@
         <v>6</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="Q3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" s="11" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="1"/>
-      <c r="G7" s="4"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="P7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="Q7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="R7" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="T7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="11" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="C8" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="D8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="G8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="M8" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="N8" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="17" t="s">
+      <c r="O8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="P8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="Q8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="R8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="T8" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="R9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="17" t="s">
+    </row>
+    <row r="9" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="T9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A10))</f>
+        <v>epsh:P10</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A11))</f>
         <v>epsh:P11</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="M11" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="str">
@@ -1517,25 +1499,25 @@
         <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>110</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,28 +1526,28 @@
         <v>epsh:P13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,10 +1559,10 @@
         <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>115</v>
@@ -1592,10 +1574,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,16 +1586,16 @@
         <v>epsh:P15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1</v>
@@ -1622,10 +1604,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,28 +1616,28 @@
         <v>epsh:P16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,203 +1646,203 @@
         <v>epsh:P17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J17" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="L17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A18))</f>
-        <v>epsh:P18</v>
-      </c>
-      <c r="B18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="T19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A20))</f>
+        <v>epsh:P20</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="20" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="T20" s="20"/>
-    </row>
-    <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A21))</f>
         <v>epsh:P21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A22))</f>
-        <v>epsh:P22</v>
-      </c>
-      <c r="B22" s="0" t="s">
+    </row>
+    <row r="23" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="T23" s="20"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A24))</f>
+        <v>epsh:P24</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22" s="0" t="s">
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="T24" s="20"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A25))</f>
         <v>epsh:P25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>134</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A26))</f>
         <v>epsh:P26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,28 +1851,28 @@
         <v>epsh:P27</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M27" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,10 +1884,10 @@
         <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>143</v>
@@ -1917,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,10 +1914,10 @@
         <v>144</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>145</v>
@@ -1947,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,65 +1941,65 @@
         <v>epsh:P30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A31))</f>
-        <v>epsh:P31</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="T33" s="20"/>
+      <c r="T32" s="20"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A33))</f>
+        <v>epsh:P33</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
@@ -2025,28 +2007,28 @@
         <v>epsh:P34</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="M34" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,16 +2037,16 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>1</v>
@@ -2073,158 +2055,128 @@
         <v>1</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A36))</f>
         <v>epsh:P36</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
+      <c r="J36" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R36" s="14"/>
+    </row>
+    <row r="38" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A37))</f>
-        <v>epsh:P37</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" s="0" t="s">
+      <c r="T38" s="20"/>
+    </row>
+    <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A39))</f>
+        <v>epsh:P39</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R37" s="14"/>
-    </row>
-    <row r="39" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="T39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A40))</f>
         <v>epsh:P40</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R40" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A41))</f>
-        <v>epsh:P41</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q41" s="0" t="s">
-        <v>156</v>
+      <c r="Q40" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/meps"/>
-    <hyperlink ref="E9" r:id="rId2" display="sh:name@en"/>
-    <hyperlink ref="R13" r:id="rId3" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
-    <hyperlink ref="R15" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
-    <hyperlink ref="R16" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>
-    <hyperlink ref="R17" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/authority/country/.*$&quot;"/>
-    <hyperlink ref="R21" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
-    <hyperlink ref="R40" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?$&quot;"/>
+    <hyperlink ref="E8" r:id="rId2" display="sh:name@en"/>
+    <hyperlink ref="R12" r:id="rId3" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
+    <hyperlink ref="R14" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
+    <hyperlink ref="R15" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>
+    <hyperlink ref="R16" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/authority/country/.*$&quot;"/>
+    <hyperlink ref="R20" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/org/group/.*$&quot;"/>
+    <hyperlink ref="R39" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/person/MEP_[0-9][0-9][0-9][0-9]?[0-9]?[0-9]?$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
